--- a/DB/数据库表.xlsx
+++ b/DB/数据库表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>物料表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,54 +42,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采购订单头表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到货登记头表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送货检验头表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>退货单头表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采购订单明细表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到货登记明细表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送货检验明细表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>退货单明细表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WMS_Arrival_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Arrival_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Inspect_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Inspect_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重新送检单表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,14 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WMS_PO_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_PO_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WMS_Order_Release_D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,167 +126,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>出库明细表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_Part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wms_Part(物料)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保管员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creation_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logistics_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updated_by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外信息编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每箱数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_Supplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_Customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_Inv_Adjust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_Inv_Count_Sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_Inv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_SubInvInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_InvInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_PO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到货送检记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>入库明细表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出库明细表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wms_Part(物料)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保管员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>part_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>part_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>part_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>part_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>creation_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logistics_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>other_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>created_by</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updated_by</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外信息编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每箱数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Supplier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Customer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_In_Inv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Out_Inv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Inv_Adjust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Inv_Count_Sheet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Inv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_SubInvInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_InvInfo</t>
+    <t>WMS_InInvDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_OutInvDetail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,12 +326,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -378,8 +352,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -660,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C26"/>
+  <dimension ref="A2:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -677,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -688,7 +663,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -699,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -710,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -721,7 +696,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -729,65 +704,62 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -795,156 +767,112 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -980,95 +908,95 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
+      <c r="L2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
+      <c r="M2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" t="s">
-        <v>55</v>
-      </c>
       <c r="N2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
         <v>48</v>
       </c>
-      <c r="C3" t="s">
+      <c r="J3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" t="s">
+      <c r="K3" t="s">
         <v>50</v>
       </c>
-      <c r="E3" t="s">
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
         <v>51</v>
       </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" t="s">
-        <v>64</v>
-      </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/DB/数据库表.xlsx
+++ b/DB/数据库表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>物料表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,31 +42,239 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>退货单头表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货单明细表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重新送检单表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>库存表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_Production_Entry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存调整表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘点表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投料单头表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投料单明细表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单头表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单明细表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_Sale_Order_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_Parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_Order_Release_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_Order_Release_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_Sale_Order_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_Part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wms_Part(物料)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保管员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creation_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logistics_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updated_by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外信息编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每箱数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_Supplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_Customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_Inv_Adjust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_Inv_Count_Sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_Inv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_SubInvInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_InvInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_PO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到货送检记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>WMS_ReInspect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WMS_Return_Order_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Return_Order_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存表</t>
+    <t>库存明细表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_InvDetail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,235 +282,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WMS_Production_Entry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存调整表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盘点表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投料单头表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投料单明细表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售订单头表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售订单明细表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Sale_Order_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Order_Release_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Order_Release_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Sale_Order_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库明细表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wms_Part(物料)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保管员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>part_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>part_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>part_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>part_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>creation_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logistics_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>other_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>created_by</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updated_by</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外信息编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每箱数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Supplier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Customer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Inv_Adjust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Inv_Count_Sheet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Inv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_SubInvInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_InvInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_PO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购订单表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到货送检记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_AI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库明细表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_InInvDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_OutInvDetail</t>
+    <t>退货单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_ReturnOrder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C22"/>
+  <dimension ref="A2:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -652,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -663,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -674,7 +658,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -685,7 +669,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -696,7 +680,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -707,18 +691,18 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -726,10 +710,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,18 +721,18 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -756,123 +740,101 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -908,95 +870,95 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" t="s">
-        <v>40</v>
-      </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
+      <c r="M3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" t="s">
         <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/DB/数据库表.xlsx
+++ b/DB/数据库表.xlsx
@@ -238,55 +238,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>WMS_SubInvInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_PO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到货送检记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_ReInspect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自制件入库表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_ReturnOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_InvRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_InvInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>WMS_Inv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_SubInvInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_InvInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购订单表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_PO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到货送检记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_AI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_ReInspect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存明细表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_InvDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自制件入库表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货单表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_ReturnOrder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,9 +336,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -622,12 +625,12 @@
   <dimension ref="A2:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -669,7 +672,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -680,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -691,18 +694,18 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -710,7 +713,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -721,10 +724,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -732,7 +735,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -746,7 +749,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -830,11 +833,11 @@
       <c r="A20">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/DB/数据库表.xlsx
+++ b/DB/数据库表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>物料表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WMS_Production_Entry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>库存调整表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,26 +58,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>投料单头表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投料单明细表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>销售订单头表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>销售订单明细表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Sale_Order_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,18 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WMS_Order_Release_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Order_Release_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Sale_Order_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物料ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,63 +198,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>WMS_SubInvInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_PO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到货送检记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_ReInspect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自制件入库表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_ReturnOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_InvRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_InvInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_Inv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_Product_Entry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>WMS_Inv_Adjust</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WMS_Inv_Count_Sheet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_SubInvInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购订单表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_PO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到货送检记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_AI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_ReInspect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自制件入库表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货单表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_ReturnOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_InvRecord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_InvInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMS_Inv</t>
+    <t>WMS_Inventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投料单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_Feed_List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_Sale_Order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C20"/>
+  <dimension ref="A2:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -639,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -650,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -661,7 +645,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -672,7 +656,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -683,7 +667,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -694,18 +678,18 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -713,7 +697,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -724,10 +708,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -735,7 +719,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -746,10 +730,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -757,10 +741,10 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -768,10 +752,10 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -779,65 +763,43 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -873,95 +835,95 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/DB/数据库表.xlsx
+++ b/DB/数据库表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>物料表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>盘点表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>销售订单头表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,10 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WMS_Inventory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>投料单表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,6 +263,22 @@
   </si>
   <si>
     <t>WMS_Sale_Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_Inventory_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS_Inventory_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘点表头表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘点表子表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C18"/>
+  <dimension ref="A2:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -623,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -634,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -645,7 +653,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -656,7 +664,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -667,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -678,18 +686,18 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -697,7 +705,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -708,10 +716,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -719,7 +727,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -730,10 +738,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -741,7 +749,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -752,10 +760,10 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -763,43 +771,54 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>24</v>
-      </c>
-      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
         <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -835,95 +854,95 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
       <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
         <v>35</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
